--- a/WF3_DevTemplate.xlsx
+++ b/WF3_DevTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F58D85-2BE8-9349-A1B7-922B4043D94E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B194ECE6-8D88-2C4B-A258-156D89048F9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22100" yWindow="460" windowWidth="28940" windowHeight="27640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22100" yWindow="460" windowWidth="28940" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WF1" sheetId="1" r:id="rId1"/>
@@ -861,12 +861,6 @@
     <t>[7]</t>
   </si>
   <si>
-    <t>[[500,500],[0,250],[500,500]]</t>
-  </si>
-  <si>
-    <t>[[2,3,1],[4,5],[7]]</t>
-  </si>
-  <si>
     <t>WF1 = ITC Temperature, WF3 = Temperature prior to Vapor Diffusion (VD is at RT)</t>
   </si>
   <si>
@@ -883,6 +877,12 @@
   </si>
   <si>
     <t>WF3 Cooling time(s) (after all reagents have been added)</t>
+  </si>
+  <si>
+    <t>[[500,500],[250,250]]</t>
+  </si>
+  <si>
+    <t>[[2,3,4,5,1],[7]]</t>
   </si>
 </sst>
 </file>
@@ -1598,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>49</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>49</v>
@@ -3082,7 +3082,7 @@
         <v>900</v>
       </c>
       <c r="G69" s="49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H69" s="50"/>
     </row>
@@ -3104,10 +3104,10 @@
         <v>1200</v>
       </c>
       <c r="G70" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H70" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,7 +3131,7 @@
         <v>94</v>
       </c>
       <c r="H71" s="50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -3152,10 +3152,10 @@
         <v>120</v>
       </c>
       <c r="G72" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H72" s="50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
